--- a/biology/Histoire de la zoologie et de la botanique/Victor_Loche/Victor_Loche.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Victor_Loche/Victor_Loche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le commandant Victor Jean-François Loche (1806-1863) est un militaire et un naturaliste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il participe à la Mission d'exploration scientifique de l'Algérie organisée par le gouvernement français, qu’il dirige à partir de 1853.
 Il fait paraître en 1858 son Catalogue des mammifères et des oiseaux observés en Algérie (A. Bertrand, Paris) dans lequel il décrit 357 espèces d’oiseaux et le chat des sables.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Victor-Jean-François Loche (Capitaine), Catalogue des mammifères et des oiseaux observés en Algérie, Paris, A. Bertrand, 1858, XI-158 p.
 Publication posthumes :
